--- a/spec/test_data/census_employee_import/DCHL Employee Census.xlsx
+++ b/spec/test_data/census_employee_import/DCHL Employee Census.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisanthyaganti/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16120" tabRatio="488"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="488"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Census" sheetId="6" r:id="rId1"/>
@@ -37,6 +42,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -45,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Last Name</t>
   </si>
@@ -57,9 +65,6 @@
   </si>
   <si>
     <t>Date of Hire</t>
-  </si>
-  <si>
-    <t>DC Health Link - Employee Census Template</t>
   </si>
   <si>
     <r>
@@ -80,9 +85,6 @@
     </r>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Relationship
 </t>
@@ -99,12 +101,6 @@
       </rPr>
       <t>(EE, Spouse, Domestic Partner, or Child)</t>
     </r>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>9/6/2015</t>
   </si>
   <si>
     <t>last_name</t>
@@ -159,24 +155,6 @@
   </si>
   <si>
     <t>Gender</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSN / TIN 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Required for EE)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -249,6 +227,30 @@
     <t>Zip(Optional)</t>
   </si>
   <si>
+    <t>DC Health Link  Employee Census Template</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSN / TIN 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Required for EE &amp; enter without dashes)</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Family ID # 
 </t>
@@ -263,11 +265,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(to match family members to the EE)(optional)</t>
+      <t>(to match family members to the EE &amp; each household gets a unique number)(optional)</t>
     </r>
   </si>
   <si>
+    <t>address_2</t>
+  </si>
+  <si>
+    <t>Address Line 2(Optional)</t>
+  </si>
+  <si>
+    <t>Date of Birth (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
   <si>
     <t>male</t>
@@ -276,55 +293,25 @@
     <t>no</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
     <t>DC</t>
   </si>
   <si>
-    <t>abc123</t>
+    <t>female</t>
   </si>
   <si>
-    <t>panther1</t>
+    <t>test2@gmail.com</t>
   </si>
   <si>
-    <t>pink1</t>
+    <t>test2</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>111@gmail.com</t>
-  </si>
-  <si>
-    <t>111111110</t>
-  </si>
-  <si>
-    <t>bf1</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>100 NY Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington </t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>runner1</t>
-  </si>
-  <si>
-    <t>road1</t>
-  </si>
-  <si>
-    <t>111-22-9990</t>
-  </si>
-  <si>
-    <t>female</t>
+    <t>Spouse</t>
   </si>
 </sst>
 </file>
@@ -562,6 +549,7 @@
       <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -926,7 +914,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1022,6 +1010,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="78" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1177,12 +1176,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1212,12 +1211,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1421,14 +1420,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T371"/>
+  <dimension ref="A1:U410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="13" customWidth="1"/>
@@ -1444,15 +1443,16 @@
     <col min="13" max="13" width="12.6640625" style="26" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="17" customWidth="1"/>
     <col min="15" max="16" width="18.5" style="14" customWidth="1"/>
-    <col min="17" max="17" width="17.83203125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" style="14" customWidth="1"/>
-    <col min="19" max="20" width="9.1640625" style="14" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="14"/>
+    <col min="17" max="18" width="17.83203125" style="14" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" style="14" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="14" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="20" customFormat="1" ht="31.25" customHeight="1">
+    <row r="1" spans="1:21" s="20" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1460,8 +1460,8 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="27" t="s">
-        <v>9</v>
+      <c r="H1" s="27">
+        <v>42669</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="23"/>
@@ -1469,77 +1469,80 @@
       <c r="L1" s="19"/>
       <c r="M1" s="23"/>
       <c r="N1" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" customFormat="1" ht="31.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" customFormat="1" ht="31.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="56">
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>0</v>
@@ -1548,321 +1551,339 @@
         <v>1</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>31</v>
-      </c>
       <c r="P3" s="33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>83765454</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2">
+        <v>67867867</v>
+      </c>
+      <c r="I4" s="5">
+        <v>32123</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="5">
-        <v>14699</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="6">
-        <v>40695</v>
+        <v>42350</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2">
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>83765454</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="9">
-        <v>2016</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="9">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="G5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="5">
-        <v>36249</v>
+        <v>32489</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="36"/>
+      <c r="M5" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="P5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2">
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
       <c r="J6" s="24"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="24"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="7"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="24"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="24"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="24"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" s="24"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="24"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="24"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" s="24"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="24"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="24"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="24"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1878,7 +1899,7 @@
       <c r="M17" s="24"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1893,8 +1914,9 @@
       <c r="L18" s="6"/>
       <c r="M18" s="24"/>
       <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1910,7 +1932,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1926,7 +1948,7 @@
       <c r="M20" s="24"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1942,7 +1964,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1958,7 +1980,7 @@
       <c r="M22" s="24"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1974,7 +1996,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1990,7 +2012,7 @@
       <c r="M24" s="24"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2006,7 +2028,7 @@
       <c r="M25" s="24"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2022,7 +2044,7 @@
       <c r="M26" s="24"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2038,7 +2060,7 @@
       <c r="M27" s="24"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2054,7 +2076,7 @@
       <c r="M28" s="24"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2070,7 +2092,7 @@
       <c r="M29" s="24"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2086,7 +2108,7 @@
       <c r="M30" s="24"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2102,7 +2124,7 @@
       <c r="M31" s="24"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2118,7 +2140,7 @@
       <c r="M32" s="24"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2134,7 +2156,7 @@
       <c r="M33" s="24"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2150,7 +2172,7 @@
       <c r="M34" s="24"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2166,7 +2188,7 @@
       <c r="M35" s="24"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2182,7 +2204,7 @@
       <c r="M36" s="24"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2198,7 +2220,7 @@
       <c r="M37" s="24"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2214,7 +2236,7 @@
       <c r="M38" s="24"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2230,7 +2252,7 @@
       <c r="M39" s="24"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2246,7 +2268,7 @@
       <c r="M40" s="24"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2262,7 +2284,7 @@
       <c r="M41" s="24"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2278,7 +2300,7 @@
       <c r="M42" s="24"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2294,7 +2316,7 @@
       <c r="M43" s="24"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2310,7 +2332,7 @@
       <c r="M44" s="24"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2326,7 +2348,7 @@
       <c r="M45" s="24"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2342,7 +2364,7 @@
       <c r="M46" s="24"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2358,7 +2380,7 @@
       <c r="M47" s="24"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2374,7 +2396,7 @@
       <c r="M48" s="24"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2390,7 +2412,7 @@
       <c r="M49" s="24"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2405,8 +2427,9 @@
       <c r="L50" s="6"/>
       <c r="M50" s="24"/>
       <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="U50" s="37"/>
+    </row>
+    <row r="51" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2422,7 +2445,7 @@
       <c r="M51" s="24"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2438,7 +2461,7 @@
       <c r="M52" s="24"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2454,7 +2477,7 @@
       <c r="M53" s="24"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2470,7 +2493,7 @@
       <c r="M54" s="24"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2486,7 +2509,7 @@
       <c r="M55" s="24"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2502,7 +2525,7 @@
       <c r="M56" s="24"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2518,7 +2541,7 @@
       <c r="M57" s="24"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2534,7 +2557,7 @@
       <c r="M58" s="24"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2550,8 +2573,7 @@
       <c r="M59" s="24"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2566,7 +2588,7 @@
       <c r="M60" s="24"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2582,7 +2604,7 @@
       <c r="M61" s="24"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2598,7 +2620,7 @@
       <c r="M62" s="24"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2614,7 +2636,7 @@
       <c r="M63" s="24"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2630,7 +2652,7 @@
       <c r="M64" s="24"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2646,7 +2668,7 @@
       <c r="M65" s="24"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2662,7 +2684,7 @@
       <c r="M66" s="24"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2678,7 +2700,7 @@
       <c r="M67" s="24"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2694,7 +2716,7 @@
       <c r="M68" s="24"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2710,7 +2732,7 @@
       <c r="M69" s="24"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2726,7 +2748,7 @@
       <c r="M70" s="24"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2742,7 +2764,7 @@
       <c r="M71" s="24"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2758,7 +2780,7 @@
       <c r="M72" s="24"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2774,7 +2796,7 @@
       <c r="M73" s="24"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2790,7 +2812,7 @@
       <c r="M74" s="24"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2806,7 +2828,7 @@
       <c r="M75" s="24"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2822,7 +2844,7 @@
       <c r="M76" s="24"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2838,7 +2860,7 @@
       <c r="M77" s="24"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2854,7 +2876,7 @@
       <c r="M78" s="24"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2870,7 +2892,7 @@
       <c r="M79" s="24"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2886,7 +2908,7 @@
       <c r="M80" s="24"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2902,7 +2924,7 @@
       <c r="M81" s="24"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2918,7 +2940,7 @@
       <c r="M82" s="24"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2934,7 +2956,7 @@
       <c r="M83" s="24"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2950,7 +2972,7 @@
       <c r="M84" s="24"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2966,7 +2988,7 @@
       <c r="M85" s="24"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2982,7 +3004,7 @@
       <c r="M86" s="24"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2998,7 +3020,7 @@
       <c r="M87" s="24"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3014,7 +3036,7 @@
       <c r="M88" s="24"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3030,7 +3052,7 @@
       <c r="M89" s="24"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3046,7 +3068,7 @@
       <c r="M90" s="24"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3062,7 +3084,7 @@
       <c r="M91" s="24"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3078,7 +3100,7 @@
       <c r="M92" s="24"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3094,7 +3116,7 @@
       <c r="M93" s="24"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3110,7 +3132,7 @@
       <c r="M94" s="24"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3126,7 +3148,7 @@
       <c r="M95" s="24"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3142,7 +3164,7 @@
       <c r="M96" s="24"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3158,7 +3180,7 @@
       <c r="M97" s="24"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3174,7 +3196,7 @@
       <c r="M98" s="24"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3190,7 +3212,7 @@
       <c r="M99" s="24"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3206,7 +3228,7 @@
       <c r="M100" s="24"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3222,7 +3244,7 @@
       <c r="M101" s="24"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3238,7 +3260,7 @@
       <c r="M102" s="24"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3254,7 +3276,7 @@
       <c r="M103" s="24"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3270,7 +3292,7 @@
       <c r="M104" s="24"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="105" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3286,7 +3308,7 @@
       <c r="M105" s="24"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="106" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3302,7 +3324,7 @@
       <c r="M106" s="24"/>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="107" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3318,7 +3340,7 @@
       <c r="M107" s="24"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="108" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3334,7 +3356,7 @@
       <c r="M108" s="24"/>
       <c r="N108" s="8"/>
     </row>
-    <row r="109" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3350,7 +3372,7 @@
       <c r="M109" s="24"/>
       <c r="N109" s="8"/>
     </row>
-    <row r="110" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="110" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3366,7 +3388,7 @@
       <c r="M110" s="24"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3382,7 +3404,7 @@
       <c r="M111" s="24"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3398,7 +3420,7 @@
       <c r="M112" s="24"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3414,7 +3436,7 @@
       <c r="M113" s="24"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3430,7 +3452,7 @@
       <c r="M114" s="24"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3446,7 +3468,7 @@
       <c r="M115" s="24"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3462,7 +3484,7 @@
       <c r="M116" s="24"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3478,7 +3500,7 @@
       <c r="M117" s="24"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3494,7 +3516,7 @@
       <c r="M118" s="24"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3510,7 +3532,7 @@
       <c r="M119" s="24"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3526,7 +3548,7 @@
       <c r="M120" s="24"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3542,7 +3564,7 @@
       <c r="M121" s="24"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="122" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3558,7 +3580,7 @@
       <c r="M122" s="24"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="123" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3574,7 +3596,7 @@
       <c r="M123" s="24"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="124" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3590,7 +3612,7 @@
       <c r="M124" s="24"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3606,7 +3628,7 @@
       <c r="M125" s="24"/>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="126" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3622,7 +3644,7 @@
       <c r="M126" s="24"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="127" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3638,7 +3660,7 @@
       <c r="M127" s="24"/>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="128" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3654,7 +3676,7 @@
       <c r="M128" s="24"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3670,7 +3692,7 @@
       <c r="M129" s="24"/>
       <c r="N129" s="8"/>
     </row>
-    <row r="130" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3686,7 +3708,7 @@
       <c r="M130" s="24"/>
       <c r="N130" s="8"/>
     </row>
-    <row r="131" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3702,7 +3724,7 @@
       <c r="M131" s="24"/>
       <c r="N131" s="8"/>
     </row>
-    <row r="132" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3718,7 +3740,7 @@
       <c r="M132" s="24"/>
       <c r="N132" s="8"/>
     </row>
-    <row r="133" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3734,7 +3756,7 @@
       <c r="M133" s="24"/>
       <c r="N133" s="8"/>
     </row>
-    <row r="134" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3750,7 +3772,7 @@
       <c r="M134" s="24"/>
       <c r="N134" s="8"/>
     </row>
-    <row r="135" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3766,7 +3788,7 @@
       <c r="M135" s="24"/>
       <c r="N135" s="8"/>
     </row>
-    <row r="136" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3782,7 +3804,7 @@
       <c r="M136" s="24"/>
       <c r="N136" s="8"/>
     </row>
-    <row r="137" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3798,7 +3820,7 @@
       <c r="M137" s="24"/>
       <c r="N137" s="8"/>
     </row>
-    <row r="138" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3814,7 +3836,7 @@
       <c r="M138" s="24"/>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3830,7 +3852,7 @@
       <c r="M139" s="24"/>
       <c r="N139" s="8"/>
     </row>
-    <row r="140" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3846,7 +3868,7 @@
       <c r="M140" s="24"/>
       <c r="N140" s="8"/>
     </row>
-    <row r="141" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3862,7 +3884,7 @@
       <c r="M141" s="24"/>
       <c r="N141" s="8"/>
     </row>
-    <row r="142" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3878,7 +3900,7 @@
       <c r="M142" s="24"/>
       <c r="N142" s="8"/>
     </row>
-    <row r="143" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3894,7 +3916,7 @@
       <c r="M143" s="24"/>
       <c r="N143" s="8"/>
     </row>
-    <row r="144" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3910,7 +3932,7 @@
       <c r="M144" s="24"/>
       <c r="N144" s="8"/>
     </row>
-    <row r="145" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3926,7 +3948,7 @@
       <c r="M145" s="24"/>
       <c r="N145" s="8"/>
     </row>
-    <row r="146" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3942,7 +3964,7 @@
       <c r="M146" s="24"/>
       <c r="N146" s="8"/>
     </row>
-    <row r="147" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3958,7 +3980,7 @@
       <c r="M147" s="24"/>
       <c r="N147" s="8"/>
     </row>
-    <row r="148" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3974,7 +3996,7 @@
       <c r="M148" s="24"/>
       <c r="N148" s="8"/>
     </row>
-    <row r="149" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3990,7 +4012,7 @@
       <c r="M149" s="24"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4006,7 +4028,7 @@
       <c r="M150" s="24"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="151" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4022,7 +4044,7 @@
       <c r="M151" s="24"/>
       <c r="N151" s="8"/>
     </row>
-    <row r="152" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="152" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4038,7 +4060,7 @@
       <c r="M152" s="24"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4054,7 +4076,7 @@
       <c r="M153" s="24"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="154" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4070,7 +4092,7 @@
       <c r="M154" s="24"/>
       <c r="N154" s="8"/>
     </row>
-    <row r="155" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="155" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4086,7 +4108,7 @@
       <c r="M155" s="24"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="156" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4102,7 +4124,7 @@
       <c r="M156" s="24"/>
       <c r="N156" s="8"/>
     </row>
-    <row r="157" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="157" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4118,7 +4140,7 @@
       <c r="M157" s="24"/>
       <c r="N157" s="8"/>
     </row>
-    <row r="158" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="158" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4134,7 +4156,7 @@
       <c r="M158" s="24"/>
       <c r="N158" s="8"/>
     </row>
-    <row r="159" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4150,7 +4172,7 @@
       <c r="M159" s="24"/>
       <c r="N159" s="8"/>
     </row>
-    <row r="160" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4166,7 +4188,7 @@
       <c r="M160" s="24"/>
       <c r="N160" s="8"/>
     </row>
-    <row r="161" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="161" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4182,7 +4204,7 @@
       <c r="M161" s="24"/>
       <c r="N161" s="8"/>
     </row>
-    <row r="162" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="162" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4198,7 +4220,7 @@
       <c r="M162" s="24"/>
       <c r="N162" s="8"/>
     </row>
-    <row r="163" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="163" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4214,7 +4236,7 @@
       <c r="M163" s="24"/>
       <c r="N163" s="8"/>
     </row>
-    <row r="164" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="164" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4230,7 +4252,7 @@
       <c r="M164" s="24"/>
       <c r="N164" s="8"/>
     </row>
-    <row r="165" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="165" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4246,7 +4268,7 @@
       <c r="M165" s="24"/>
       <c r="N165" s="8"/>
     </row>
-    <row r="166" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4262,7 +4284,7 @@
       <c r="M166" s="24"/>
       <c r="N166" s="8"/>
     </row>
-    <row r="167" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4278,7 +4300,7 @@
       <c r="M167" s="24"/>
       <c r="N167" s="8"/>
     </row>
-    <row r="168" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4294,7 +4316,7 @@
       <c r="M168" s="24"/>
       <c r="N168" s="8"/>
     </row>
-    <row r="169" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="169" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4310,7 +4332,7 @@
       <c r="M169" s="24"/>
       <c r="N169" s="8"/>
     </row>
-    <row r="170" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="170" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4326,7 +4348,7 @@
       <c r="M170" s="24"/>
       <c r="N170" s="8"/>
     </row>
-    <row r="171" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="171" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4342,7 +4364,7 @@
       <c r="M171" s="24"/>
       <c r="N171" s="8"/>
     </row>
-    <row r="172" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4358,7 +4380,7 @@
       <c r="M172" s="24"/>
       <c r="N172" s="8"/>
     </row>
-    <row r="173" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="173" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4374,7 +4396,7 @@
       <c r="M173" s="24"/>
       <c r="N173" s="8"/>
     </row>
-    <row r="174" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="174" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4390,7 +4412,7 @@
       <c r="M174" s="24"/>
       <c r="N174" s="8"/>
     </row>
-    <row r="175" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="175" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4406,7 +4428,7 @@
       <c r="M175" s="24"/>
       <c r="N175" s="8"/>
     </row>
-    <row r="176" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4422,7 +4444,7 @@
       <c r="M176" s="24"/>
       <c r="N176" s="8"/>
     </row>
-    <row r="177" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4438,7 +4460,7 @@
       <c r="M177" s="24"/>
       <c r="N177" s="8"/>
     </row>
-    <row r="178" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4454,7 +4476,7 @@
       <c r="M178" s="24"/>
       <c r="N178" s="8"/>
     </row>
-    <row r="179" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4470,7 +4492,7 @@
       <c r="M179" s="24"/>
       <c r="N179" s="8"/>
     </row>
-    <row r="180" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="180" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4486,7 +4508,7 @@
       <c r="M180" s="24"/>
       <c r="N180" s="8"/>
     </row>
-    <row r="181" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4502,7 +4524,7 @@
       <c r="M181" s="24"/>
       <c r="N181" s="8"/>
     </row>
-    <row r="182" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4518,7 +4540,7 @@
       <c r="M182" s="24"/>
       <c r="N182" s="8"/>
     </row>
-    <row r="183" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="183" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4534,7 +4556,7 @@
       <c r="M183" s="24"/>
       <c r="N183" s="8"/>
     </row>
-    <row r="184" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="184" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4550,7 +4572,7 @@
       <c r="M184" s="24"/>
       <c r="N184" s="8"/>
     </row>
-    <row r="185" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="185" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4566,7 +4588,7 @@
       <c r="M185" s="24"/>
       <c r="N185" s="8"/>
     </row>
-    <row r="186" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="186" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4582,7 +4604,7 @@
       <c r="M186" s="24"/>
       <c r="N186" s="8"/>
     </row>
-    <row r="187" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="187" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4598,7 +4620,7 @@
       <c r="M187" s="24"/>
       <c r="N187" s="8"/>
     </row>
-    <row r="188" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4614,7 +4636,7 @@
       <c r="M188" s="24"/>
       <c r="N188" s="8"/>
     </row>
-    <row r="189" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4630,7 +4652,7 @@
       <c r="M189" s="24"/>
       <c r="N189" s="8"/>
     </row>
-    <row r="190" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4646,7 +4668,7 @@
       <c r="M190" s="24"/>
       <c r="N190" s="8"/>
     </row>
-    <row r="191" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="191" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4662,7 +4684,7 @@
       <c r="M191" s="24"/>
       <c r="N191" s="8"/>
     </row>
-    <row r="192" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="192" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4678,7 +4700,7 @@
       <c r="M192" s="24"/>
       <c r="N192" s="8"/>
     </row>
-    <row r="193" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="193" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4694,7 +4716,7 @@
       <c r="M193" s="24"/>
       <c r="N193" s="8"/>
     </row>
-    <row r="194" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4710,7 +4732,7 @@
       <c r="M194" s="24"/>
       <c r="N194" s="8"/>
     </row>
-    <row r="195" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4726,7 +4748,7 @@
       <c r="M195" s="24"/>
       <c r="N195" s="8"/>
     </row>
-    <row r="196" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="196" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4742,7 +4764,7 @@
       <c r="M196" s="24"/>
       <c r="N196" s="8"/>
     </row>
-    <row r="197" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="197" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4758,7 +4780,7 @@
       <c r="M197" s="24"/>
       <c r="N197" s="8"/>
     </row>
-    <row r="198" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="198" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4774,7 +4796,7 @@
       <c r="M198" s="24"/>
       <c r="N198" s="8"/>
     </row>
-    <row r="199" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4790,7 +4812,7 @@
       <c r="M199" s="24"/>
       <c r="N199" s="8"/>
     </row>
-    <row r="200" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="200" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4806,7 +4828,7 @@
       <c r="M200" s="24"/>
       <c r="N200" s="8"/>
     </row>
-    <row r="201" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="201" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4822,631 +4844,631 @@
       <c r="M201" s="24"/>
       <c r="N201" s="8"/>
     </row>
-    <row r="202" spans="1:14" ht="15" customHeight="1">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="25"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="25"/>
-      <c r="K202" s="11"/>
-      <c r="L202" s="11"/>
-      <c r="M202" s="25"/>
+    <row r="202" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="24"/>
       <c r="N202" s="8"/>
     </row>
-    <row r="203" spans="1:14" ht="15" customHeight="1">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="25"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="11"/>
-      <c r="J203" s="25"/>
-      <c r="K203" s="11"/>
-      <c r="L203" s="11"/>
-      <c r="M203" s="25"/>
+    <row r="203" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="24"/>
       <c r="N203" s="8"/>
     </row>
-    <row r="204" spans="1:14" ht="15" customHeight="1">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="25"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="25"/>
-      <c r="K204" s="11"/>
-      <c r="L204" s="11"/>
-      <c r="M204" s="25"/>
+    <row r="204" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="24"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="24"/>
       <c r="N204" s="8"/>
     </row>
-    <row r="205" spans="1:14" ht="15" customHeight="1">
-      <c r="A205" s="10"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="25"/>
-      <c r="K205" s="11"/>
-      <c r="L205" s="11"/>
-      <c r="M205" s="25"/>
+    <row r="205" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="24"/>
       <c r="N205" s="8"/>
     </row>
-    <row r="206" spans="1:14" ht="15" customHeight="1">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="25"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="25"/>
-      <c r="K206" s="11"/>
-      <c r="L206" s="11"/>
-      <c r="M206" s="25"/>
+    <row r="206" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="24"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="24"/>
       <c r="N206" s="8"/>
     </row>
-    <row r="207" spans="1:14" ht="15" customHeight="1">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="25"/>
-      <c r="K207" s="11"/>
-      <c r="L207" s="11"/>
-      <c r="M207" s="25"/>
+    <row r="207" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="24"/>
       <c r="N207" s="8"/>
     </row>
-    <row r="208" spans="1:14" ht="15" customHeight="1">
-      <c r="A208" s="10"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="25"/>
-      <c r="K208" s="11"/>
-      <c r="L208" s="11"/>
-      <c r="M208" s="25"/>
+    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="24"/>
       <c r="N208" s="8"/>
     </row>
-    <row r="209" spans="1:14" ht="15" customHeight="1">
-      <c r="A209" s="10"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="25"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="25"/>
-      <c r="K209" s="11"/>
-      <c r="L209" s="11"/>
-      <c r="M209" s="25"/>
+    <row r="209" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="24"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="24"/>
       <c r="N209" s="8"/>
     </row>
-    <row r="210" spans="1:14" ht="15" customHeight="1">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="25"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="25"/>
-      <c r="K210" s="11"/>
-      <c r="L210" s="11"/>
-      <c r="M210" s="25"/>
+    <row r="210" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="24"/>
       <c r="N210" s="8"/>
     </row>
-    <row r="211" spans="1:14" ht="15" customHeight="1">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="25"/>
-      <c r="K211" s="11"/>
-      <c r="L211" s="11"/>
-      <c r="M211" s="25"/>
+    <row r="211" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="24"/>
       <c r="N211" s="8"/>
     </row>
-    <row r="212" spans="1:14" ht="15" customHeight="1">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="11"/>
-      <c r="J212" s="25"/>
-      <c r="K212" s="11"/>
-      <c r="L212" s="11"/>
-      <c r="M212" s="25"/>
+    <row r="212" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="24"/>
       <c r="N212" s="8"/>
     </row>
-    <row r="213" spans="1:14" ht="15" customHeight="1">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="25"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="25"/>
-      <c r="K213" s="11"/>
-      <c r="L213" s="11"/>
-      <c r="M213" s="25"/>
+    <row r="213" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="24"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="24"/>
       <c r="N213" s="8"/>
     </row>
-    <row r="214" spans="1:14" ht="15" customHeight="1">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="11"/>
-      <c r="J214" s="25"/>
-      <c r="K214" s="11"/>
-      <c r="L214" s="11"/>
-      <c r="M214" s="25"/>
+    <row r="214" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="24"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="24"/>
       <c r="N214" s="8"/>
     </row>
-    <row r="215" spans="1:14" ht="15" customHeight="1">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="11"/>
-      <c r="J215" s="25"/>
-      <c r="K215" s="11"/>
-      <c r="L215" s="11"/>
-      <c r="M215" s="25"/>
+    <row r="215" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="24"/>
       <c r="N215" s="8"/>
     </row>
-    <row r="216" spans="1:14" ht="15" customHeight="1">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="25"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="11"/>
-      <c r="J216" s="25"/>
-      <c r="K216" s="11"/>
-      <c r="L216" s="11"/>
-      <c r="M216" s="25"/>
+    <row r="216" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="24"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="24"/>
       <c r="N216" s="8"/>
     </row>
-    <row r="217" spans="1:14" ht="15" customHeight="1">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="25"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="11"/>
-      <c r="J217" s="25"/>
-      <c r="K217" s="11"/>
-      <c r="L217" s="11"/>
-      <c r="M217" s="25"/>
+    <row r="217" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="24"/>
       <c r="N217" s="8"/>
     </row>
-    <row r="218" spans="1:14" ht="15" customHeight="1">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="25"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="11"/>
-      <c r="J218" s="25"/>
-      <c r="K218" s="11"/>
-      <c r="L218" s="11"/>
-      <c r="M218" s="25"/>
+    <row r="218" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="24"/>
       <c r="N218" s="8"/>
     </row>
-    <row r="219" spans="1:14" ht="15" customHeight="1">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="25"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="11"/>
-      <c r="J219" s="25"/>
-      <c r="K219" s="11"/>
-      <c r="L219" s="11"/>
-      <c r="M219" s="25"/>
+    <row r="219" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="24"/>
       <c r="N219" s="8"/>
     </row>
-    <row r="220" spans="1:14" ht="15" customHeight="1">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="25"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="25"/>
-      <c r="K220" s="11"/>
-      <c r="L220" s="11"/>
-      <c r="M220" s="25"/>
+    <row r="220" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="24"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="24"/>
       <c r="N220" s="8"/>
     </row>
-    <row r="221" spans="1:14" ht="15" customHeight="1">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="11"/>
-      <c r="J221" s="25"/>
-      <c r="K221" s="11"/>
-      <c r="L221" s="11"/>
-      <c r="M221" s="25"/>
+    <row r="221" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="24"/>
       <c r="N221" s="8"/>
     </row>
-    <row r="222" spans="1:14" ht="15" customHeight="1">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="25"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="11"/>
-      <c r="J222" s="25"/>
-      <c r="K222" s="11"/>
-      <c r="L222" s="11"/>
-      <c r="M222" s="25"/>
+    <row r="222" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="24"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="24"/>
       <c r="N222" s="8"/>
     </row>
-    <row r="223" spans="1:14" ht="15" customHeight="1">
-      <c r="A223" s="10"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="25"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="11"/>
-      <c r="J223" s="25"/>
-      <c r="K223" s="11"/>
-      <c r="L223" s="11"/>
-      <c r="M223" s="25"/>
+    <row r="223" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="24"/>
       <c r="N223" s="8"/>
     </row>
-    <row r="224" spans="1:14" ht="15" customHeight="1">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="25"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="11"/>
-      <c r="J224" s="25"/>
-      <c r="K224" s="11"/>
-      <c r="L224" s="11"/>
-      <c r="M224" s="25"/>
+    <row r="224" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="24"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="24"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="24"/>
       <c r="N224" s="8"/>
     </row>
-    <row r="225" spans="1:14" ht="15" customHeight="1">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="25"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="11"/>
-      <c r="J225" s="25"/>
-      <c r="K225" s="11"/>
-      <c r="L225" s="11"/>
-      <c r="M225" s="25"/>
+    <row r="225" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="24"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="24"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="24"/>
       <c r="N225" s="8"/>
     </row>
-    <row r="226" spans="1:14" ht="15" customHeight="1">
-      <c r="A226" s="10"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="25"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="11"/>
-      <c r="J226" s="25"/>
-      <c r="K226" s="11"/>
-      <c r="L226" s="11"/>
-      <c r="M226" s="25"/>
+    <row r="226" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="24"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="24"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="24"/>
       <c r="N226" s="8"/>
     </row>
-    <row r="227" spans="1:14" ht="15" customHeight="1">
-      <c r="A227" s="10"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="25"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="11"/>
-      <c r="J227" s="25"/>
-      <c r="K227" s="11"/>
-      <c r="L227" s="11"/>
-      <c r="M227" s="25"/>
+    <row r="227" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="24"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="24"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="24"/>
       <c r="N227" s="8"/>
     </row>
-    <row r="228" spans="1:14" ht="15" customHeight="1">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="25"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="11"/>
-      <c r="J228" s="25"/>
-      <c r="K228" s="11"/>
-      <c r="L228" s="11"/>
-      <c r="M228" s="25"/>
+    <row r="228" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="24"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="24"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="24"/>
       <c r="N228" s="8"/>
     </row>
-    <row r="229" spans="1:14" ht="15" customHeight="1">
-      <c r="A229" s="10"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="25"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="11"/>
-      <c r="J229" s="25"/>
-      <c r="K229" s="11"/>
-      <c r="L229" s="11"/>
-      <c r="M229" s="25"/>
+    <row r="229" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="24"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="24"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="24"/>
       <c r="N229" s="8"/>
     </row>
-    <row r="230" spans="1:14" ht="15" customHeight="1">
-      <c r="A230" s="10"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="25"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="11"/>
-      <c r="J230" s="25"/>
-      <c r="K230" s="11"/>
-      <c r="L230" s="11"/>
-      <c r="M230" s="25"/>
+    <row r="230" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="24"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="24"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="24"/>
       <c r="N230" s="8"/>
     </row>
-    <row r="231" spans="1:14" ht="15" customHeight="1">
-      <c r="A231" s="10"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="25"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="11"/>
-      <c r="J231" s="25"/>
-      <c r="K231" s="11"/>
-      <c r="L231" s="11"/>
-      <c r="M231" s="25"/>
+    <row r="231" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="24"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="24"/>
       <c r="N231" s="8"/>
     </row>
-    <row r="232" spans="1:14" ht="15" customHeight="1">
-      <c r="A232" s="10"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="25"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="11"/>
-      <c r="J232" s="25"/>
-      <c r="K232" s="11"/>
-      <c r="L232" s="11"/>
-      <c r="M232" s="25"/>
+    <row r="232" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="24"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="24"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="24"/>
       <c r="N232" s="8"/>
     </row>
-    <row r="233" spans="1:14" ht="15" customHeight="1">
-      <c r="A233" s="10"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10"/>
-      <c r="G233" s="25"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="11"/>
-      <c r="J233" s="25"/>
-      <c r="K233" s="11"/>
-      <c r="L233" s="11"/>
-      <c r="M233" s="25"/>
+    <row r="233" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="24"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="24"/>
       <c r="N233" s="8"/>
     </row>
-    <row r="234" spans="1:14" ht="15" customHeight="1">
-      <c r="A234" s="10"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="11"/>
-      <c r="J234" s="25"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="25"/>
+    <row r="234" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="24"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="24"/>
       <c r="N234" s="8"/>
     </row>
-    <row r="235" spans="1:14" ht="15" customHeight="1">
-      <c r="A235" s="10"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
-      <c r="G235" s="25"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="11"/>
-      <c r="J235" s="25"/>
-      <c r="K235" s="11"/>
-      <c r="L235" s="11"/>
-      <c r="M235" s="25"/>
+    <row r="235" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="24"/>
       <c r="N235" s="8"/>
     </row>
-    <row r="236" spans="1:14" ht="15" customHeight="1">
-      <c r="A236" s="10"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="25"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="11"/>
-      <c r="J236" s="25"/>
-      <c r="K236" s="11"/>
-      <c r="L236" s="11"/>
-      <c r="M236" s="25"/>
+    <row r="236" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="24"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="24"/>
       <c r="N236" s="8"/>
     </row>
-    <row r="237" spans="1:14" ht="15" customHeight="1">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="25"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="25"/>
-      <c r="K237" s="11"/>
-      <c r="L237" s="11"/>
-      <c r="M237" s="25"/>
+    <row r="237" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="24"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="24"/>
       <c r="N237" s="8"/>
     </row>
-    <row r="238" spans="1:14" ht="15" customHeight="1">
-      <c r="A238" s="10"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="25"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="11"/>
-      <c r="J238" s="25"/>
-      <c r="K238" s="11"/>
-      <c r="L238" s="11"/>
-      <c r="M238" s="25"/>
+    <row r="238" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="24"/>
       <c r="N238" s="8"/>
     </row>
-    <row r="239" spans="1:14" ht="15" customHeight="1">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="25"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="11"/>
-      <c r="J239" s="25"/>
-      <c r="K239" s="11"/>
-      <c r="L239" s="11"/>
-      <c r="M239" s="25"/>
+    <row r="239" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="24"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="24"/>
       <c r="N239" s="8"/>
     </row>
-    <row r="240" spans="1:14" ht="15" customHeight="1">
-      <c r="A240" s="10"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="25"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="11"/>
-      <c r="J240" s="25"/>
-      <c r="K240" s="11"/>
-      <c r="L240" s="11"/>
-      <c r="M240" s="25"/>
+    <row r="240" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="24"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="24"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="24"/>
       <c r="N240" s="8"/>
     </row>
-    <row r="241" spans="1:14" ht="15" customHeight="1">
+    <row r="241" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5461,8 +5483,15 @@
       <c r="L241" s="11"/>
       <c r="M241" s="25"/>
       <c r="N241" s="8"/>
-    </row>
-    <row r="242" spans="1:14" ht="15" customHeight="1">
+      <c r="O241" s="14"/>
+      <c r="P241" s="14"/>
+      <c r="Q241" s="14"/>
+      <c r="R241" s="14"/>
+      <c r="S241" s="14"/>
+      <c r="T241" s="14"/>
+      <c r="U241" s="14"/>
+    </row>
+    <row r="242" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5477,8 +5506,15 @@
       <c r="L242" s="11"/>
       <c r="M242" s="25"/>
       <c r="N242" s="8"/>
-    </row>
-    <row r="243" spans="1:14" ht="15" customHeight="1">
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+      <c r="R242" s="14"/>
+      <c r="S242" s="14"/>
+      <c r="T242" s="14"/>
+      <c r="U242" s="14"/>
+    </row>
+    <row r="243" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5494,7 +5530,7 @@
       <c r="M243" s="25"/>
       <c r="N243" s="8"/>
     </row>
-    <row r="244" spans="1:14" ht="15" customHeight="1">
+    <row r="244" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -5510,7 +5546,7 @@
       <c r="M244" s="25"/>
       <c r="N244" s="8"/>
     </row>
-    <row r="245" spans="1:14" ht="15" customHeight="1">
+    <row r="245" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -5526,7 +5562,7 @@
       <c r="M245" s="25"/>
       <c r="N245" s="8"/>
     </row>
-    <row r="246" spans="1:14" ht="15" customHeight="1">
+    <row r="246" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -5542,7 +5578,7 @@
       <c r="M246" s="25"/>
       <c r="N246" s="8"/>
     </row>
-    <row r="247" spans="1:14" ht="15" customHeight="1">
+    <row r="247" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -5558,7 +5594,7 @@
       <c r="M247" s="25"/>
       <c r="N247" s="8"/>
     </row>
-    <row r="248" spans="1:14" ht="15" customHeight="1">
+    <row r="248" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5574,7 +5610,7 @@
       <c r="M248" s="25"/>
       <c r="N248" s="8"/>
     </row>
-    <row r="249" spans="1:14" ht="15" customHeight="1">
+    <row r="249" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -5590,7 +5626,7 @@
       <c r="M249" s="25"/>
       <c r="N249" s="8"/>
     </row>
-    <row r="250" spans="1:14" ht="15" customHeight="1">
+    <row r="250" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -5606,7 +5642,7 @@
       <c r="M250" s="25"/>
       <c r="N250" s="8"/>
     </row>
-    <row r="251" spans="1:14" ht="15" customHeight="1">
+    <row r="251" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -5622,7 +5658,7 @@
       <c r="M251" s="25"/>
       <c r="N251" s="8"/>
     </row>
-    <row r="252" spans="1:14" ht="15" customHeight="1">
+    <row r="252" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -5638,7 +5674,7 @@
       <c r="M252" s="25"/>
       <c r="N252" s="8"/>
     </row>
-    <row r="253" spans="1:14" ht="15" customHeight="1">
+    <row r="253" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -5654,7 +5690,7 @@
       <c r="M253" s="25"/>
       <c r="N253" s="8"/>
     </row>
-    <row r="254" spans="1:14" ht="15" customHeight="1">
+    <row r="254" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -5670,7 +5706,7 @@
       <c r="M254" s="25"/>
       <c r="N254" s="8"/>
     </row>
-    <row r="255" spans="1:14" ht="15" customHeight="1">
+    <row r="255" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -5686,7 +5722,7 @@
       <c r="M255" s="25"/>
       <c r="N255" s="8"/>
     </row>
-    <row r="256" spans="1:14" ht="15" customHeight="1">
+    <row r="256" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -5702,7 +5738,7 @@
       <c r="M256" s="25"/>
       <c r="N256" s="8"/>
     </row>
-    <row r="257" spans="1:14" ht="15" customHeight="1">
+    <row r="257" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -5718,7 +5754,7 @@
       <c r="M257" s="25"/>
       <c r="N257" s="8"/>
     </row>
-    <row r="258" spans="1:14" ht="15" customHeight="1">
+    <row r="258" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -5734,7 +5770,7 @@
       <c r="M258" s="25"/>
       <c r="N258" s="8"/>
     </row>
-    <row r="259" spans="1:14" ht="15" customHeight="1">
+    <row r="259" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -5750,7 +5786,7 @@
       <c r="M259" s="25"/>
       <c r="N259" s="8"/>
     </row>
-    <row r="260" spans="1:14" ht="15" customHeight="1">
+    <row r="260" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -5766,7 +5802,7 @@
       <c r="M260" s="25"/>
       <c r="N260" s="8"/>
     </row>
-    <row r="261" spans="1:14" ht="15" customHeight="1">
+    <row r="261" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -5782,387 +5818,1007 @@
       <c r="M261" s="25"/>
       <c r="N261" s="8"/>
     </row>
-    <row r="262" spans="1:14" ht="15" customHeight="1">
+    <row r="262" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+      <c r="G262" s="25"/>
+      <c r="H262" s="12"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="25"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="25"/>
       <c r="N262" s="8"/>
     </row>
-    <row r="263" spans="1:14" ht="15" customHeight="1">
+    <row r="263" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="25"/>
+      <c r="H263" s="12"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="25"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="25"/>
       <c r="N263" s="8"/>
     </row>
-    <row r="264" spans="1:14" ht="15" customHeight="1">
+    <row r="264" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="25"/>
+      <c r="H264" s="12"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="25"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="25"/>
       <c r="N264" s="8"/>
     </row>
-    <row r="265" spans="1:14" ht="15" customHeight="1">
+    <row r="265" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="25"/>
+      <c r="H265" s="12"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="25"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="25"/>
       <c r="N265" s="8"/>
     </row>
-    <row r="266" spans="1:14" ht="15" customHeight="1">
+    <row r="266" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="25"/>
+      <c r="H266" s="12"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="25"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="25"/>
       <c r="N266" s="8"/>
     </row>
-    <row r="267" spans="1:14" ht="15" customHeight="1">
+    <row r="267" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="25"/>
+      <c r="H267" s="12"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="25"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="25"/>
       <c r="N267" s="8"/>
     </row>
-    <row r="268" spans="1:14" ht="15" customHeight="1">
+    <row r="268" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="25"/>
+      <c r="H268" s="12"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="25"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="25"/>
       <c r="N268" s="8"/>
     </row>
-    <row r="269" spans="1:14" ht="15" customHeight="1">
+    <row r="269" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="25"/>
+      <c r="H269" s="12"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="25"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="25"/>
       <c r="N269" s="8"/>
     </row>
-    <row r="270" spans="1:14" ht="15" customHeight="1">
+    <row r="270" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="25"/>
+      <c r="H270" s="12"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="25"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="25"/>
       <c r="N270" s="8"/>
     </row>
-    <row r="271" spans="1:14" ht="15" customHeight="1">
+    <row r="271" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="25"/>
+      <c r="H271" s="12"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="25"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="25"/>
       <c r="N271" s="8"/>
     </row>
-    <row r="272" spans="1:14" ht="15" customHeight="1">
+    <row r="272" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="25"/>
+      <c r="H272" s="12"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="25"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="25"/>
       <c r="N272" s="8"/>
     </row>
-    <row r="273" spans="14:14" ht="15" customHeight="1">
+    <row r="273" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="25"/>
+      <c r="H273" s="12"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="25"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="25"/>
       <c r="N273" s="8"/>
     </row>
-    <row r="274" spans="14:14" ht="15" customHeight="1">
+    <row r="274" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="25"/>
+      <c r="H274" s="12"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="25"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="25"/>
       <c r="N274" s="8"/>
     </row>
-    <row r="275" spans="14:14" ht="15" customHeight="1">
+    <row r="275" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="25"/>
+      <c r="H275" s="12"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="25"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="25"/>
       <c r="N275" s="8"/>
     </row>
-    <row r="276" spans="14:14" ht="15" customHeight="1">
+    <row r="276" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="10"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="25"/>
+      <c r="H276" s="12"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="25"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="25"/>
       <c r="N276" s="8"/>
     </row>
-    <row r="277" spans="14:14" ht="15" customHeight="1">
+    <row r="277" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="25"/>
+      <c r="H277" s="12"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="25"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="25"/>
       <c r="N277" s="8"/>
     </row>
-    <row r="278" spans="14:14" ht="15" customHeight="1">
+    <row r="278" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="10"/>
+      <c r="B278" s="10"/>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="25"/>
+      <c r="H278" s="12"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="25"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="25"/>
       <c r="N278" s="8"/>
     </row>
-    <row r="279" spans="14:14" ht="15" customHeight="1">
+    <row r="279" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="25"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="25"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="25"/>
       <c r="N279" s="8"/>
     </row>
-    <row r="280" spans="14:14" ht="15" customHeight="1">
+    <row r="280" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="25"/>
+      <c r="H280" s="12"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="25"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="25"/>
       <c r="N280" s="8"/>
     </row>
-    <row r="281" spans="14:14" ht="15" customHeight="1">
+    <row r="281" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="10"/>
+      <c r="G281" s="25"/>
+      <c r="H281" s="12"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="25"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="25"/>
       <c r="N281" s="8"/>
     </row>
-    <row r="282" spans="14:14" ht="15" customHeight="1">
+    <row r="282" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="10"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="10"/>
+      <c r="G282" s="25"/>
+      <c r="H282" s="12"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="25"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="25"/>
       <c r="N282" s="8"/>
     </row>
-    <row r="283" spans="14:14" ht="15" customHeight="1">
+    <row r="283" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="25"/>
+      <c r="H283" s="12"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="25"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="25"/>
       <c r="N283" s="8"/>
     </row>
-    <row r="284" spans="14:14" ht="15" customHeight="1">
+    <row r="284" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="10"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="10"/>
+      <c r="G284" s="25"/>
+      <c r="H284" s="12"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="25"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="25"/>
       <c r="N284" s="8"/>
     </row>
-    <row r="285" spans="14:14" ht="15" customHeight="1">
+    <row r="285" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="10"/>
+      <c r="G285" s="25"/>
+      <c r="H285" s="12"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="25"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="25"/>
       <c r="N285" s="8"/>
     </row>
-    <row r="286" spans="14:14" ht="15" customHeight="1">
+    <row r="286" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="10"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="10"/>
+      <c r="G286" s="25"/>
+      <c r="H286" s="12"/>
+      <c r="I286" s="11"/>
+      <c r="J286" s="25"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="25"/>
       <c r="N286" s="8"/>
     </row>
-    <row r="287" spans="14:14" ht="15" customHeight="1">
+    <row r="287" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="10"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="10"/>
+      <c r="G287" s="25"/>
+      <c r="H287" s="12"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="25"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="25"/>
       <c r="N287" s="8"/>
     </row>
-    <row r="288" spans="14:14" ht="15" customHeight="1">
+    <row r="288" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="10"/>
+      <c r="D288" s="10"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="10"/>
+      <c r="G288" s="25"/>
+      <c r="H288" s="12"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="25"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="25"/>
       <c r="N288" s="8"/>
     </row>
-    <row r="289" spans="14:14" ht="15" customHeight="1">
+    <row r="289" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="10"/>
+      <c r="D289" s="10"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="10"/>
+      <c r="G289" s="25"/>
+      <c r="H289" s="12"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="25"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="25"/>
       <c r="N289" s="8"/>
     </row>
-    <row r="290" spans="14:14" ht="15" customHeight="1">
+    <row r="290" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10"/>
+      <c r="E290" s="10"/>
+      <c r="F290" s="10"/>
+      <c r="G290" s="25"/>
+      <c r="H290" s="12"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="25"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="25"/>
       <c r="N290" s="8"/>
     </row>
-    <row r="291" spans="14:14" ht="15" customHeight="1">
+    <row r="291" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="10"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="10"/>
+      <c r="D291" s="10"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="10"/>
+      <c r="G291" s="25"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="25"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="25"/>
       <c r="N291" s="8"/>
     </row>
-    <row r="292" spans="14:14" ht="15" customHeight="1">
+    <row r="292" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="10"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="10"/>
+      <c r="G292" s="25"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="11"/>
+      <c r="J292" s="25"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11"/>
+      <c r="M292" s="25"/>
       <c r="N292" s="8"/>
     </row>
-    <row r="293" spans="14:14" ht="15" customHeight="1">
+    <row r="293" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="10"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
+      <c r="G293" s="25"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="25"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="25"/>
       <c r="N293" s="8"/>
     </row>
-    <row r="294" spans="14:14" ht="15" customHeight="1">
+    <row r="294" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="10"/>
+      <c r="B294" s="10"/>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="25"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="25"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="25"/>
       <c r="N294" s="8"/>
     </row>
-    <row r="295" spans="14:14" ht="15" customHeight="1">
+    <row r="295" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="10"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="10"/>
+      <c r="G295" s="25"/>
+      <c r="H295" s="12"/>
+      <c r="I295" s="11"/>
+      <c r="J295" s="25"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="11"/>
+      <c r="M295" s="25"/>
       <c r="N295" s="8"/>
     </row>
-    <row r="296" spans="14:14" ht="15" customHeight="1">
+    <row r="296" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="10"/>
+      <c r="B296" s="10"/>
+      <c r="C296" s="10"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="25"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="11"/>
+      <c r="J296" s="25"/>
+      <c r="K296" s="11"/>
+      <c r="L296" s="11"/>
+      <c r="M296" s="25"/>
       <c r="N296" s="8"/>
     </row>
-    <row r="297" spans="14:14" ht="15" customHeight="1">
+    <row r="297" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="10"/>
+      <c r="B297" s="10"/>
+      <c r="C297" s="10"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="25"/>
+      <c r="H297" s="12"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="25"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="11"/>
+      <c r="M297" s="25"/>
       <c r="N297" s="8"/>
     </row>
-    <row r="298" spans="14:14" ht="15" customHeight="1">
+    <row r="298" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="10"/>
+      <c r="B298" s="10"/>
+      <c r="C298" s="10"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="10"/>
+      <c r="G298" s="25"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="11"/>
+      <c r="J298" s="25"/>
+      <c r="K298" s="11"/>
+      <c r="L298" s="11"/>
+      <c r="M298" s="25"/>
       <c r="N298" s="8"/>
     </row>
-    <row r="299" spans="14:14" ht="15" customHeight="1">
+    <row r="299" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="10"/>
+      <c r="B299" s="10"/>
+      <c r="C299" s="10"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="25"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="25"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="11"/>
+      <c r="M299" s="25"/>
       <c r="N299" s="8"/>
     </row>
-    <row r="300" spans="14:14" ht="15" customHeight="1">
+    <row r="300" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="10"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="25"/>
+      <c r="H300" s="12"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="25"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="25"/>
       <c r="N300" s="8"/>
     </row>
-    <row r="301" spans="14:14" ht="15" customHeight="1">
+    <row r="301" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N301" s="8"/>
     </row>
-    <row r="302" spans="14:14" ht="15" customHeight="1">
+    <row r="302" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N302" s="8"/>
     </row>
-    <row r="303" spans="14:14" ht="15" customHeight="1">
+    <row r="303" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N303" s="8"/>
     </row>
-    <row r="304" spans="14:14" ht="15" customHeight="1">
+    <row r="304" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N304" s="8"/>
     </row>
-    <row r="305" spans="14:14" ht="15" customHeight="1">
+    <row r="305" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N305" s="8"/>
     </row>
-    <row r="306" spans="14:14" ht="15" customHeight="1">
+    <row r="306" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N306" s="8"/>
     </row>
-    <row r="307" spans="14:14" ht="15" customHeight="1">
+    <row r="307" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N307" s="8"/>
     </row>
-    <row r="308" spans="14:14" ht="15" customHeight="1">
+    <row r="308" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N308" s="8"/>
     </row>
-    <row r="309" spans="14:14" ht="15" customHeight="1">
+    <row r="309" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N309" s="8"/>
     </row>
-    <row r="310" spans="14:14" ht="15" customHeight="1">
+    <row r="310" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N310" s="8"/>
     </row>
-    <row r="311" spans="14:14" ht="15" customHeight="1">
+    <row r="311" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N311" s="8"/>
     </row>
-    <row r="312" spans="14:14" ht="15" customHeight="1">
+    <row r="312" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N312" s="8"/>
     </row>
-    <row r="313" spans="14:14" ht="15" customHeight="1">
+    <row r="313" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N313" s="8"/>
     </row>
-    <row r="314" spans="14:14" ht="15" customHeight="1">
+    <row r="314" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N314" s="8"/>
     </row>
-    <row r="315" spans="14:14" ht="15" customHeight="1">
+    <row r="315" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N315" s="8"/>
     </row>
-    <row r="316" spans="14:14" ht="15" customHeight="1">
+    <row r="316" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N316" s="8"/>
     </row>
-    <row r="317" spans="14:14" ht="15" customHeight="1">
+    <row r="317" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N317" s="8"/>
     </row>
-    <row r="318" spans="14:14" ht="15" customHeight="1">
+    <row r="318" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N318" s="8"/>
     </row>
-    <row r="319" spans="14:14" ht="15" customHeight="1">
+    <row r="319" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N319" s="8"/>
     </row>
-    <row r="320" spans="14:14" ht="15" customHeight="1">
+    <row r="320" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N320" s="8"/>
     </row>
-    <row r="321" spans="14:14" ht="15" customHeight="1">
+    <row r="321" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N321" s="8"/>
     </row>
-    <row r="322" spans="14:14" ht="15" customHeight="1">
+    <row r="322" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N322" s="8"/>
     </row>
-    <row r="323" spans="14:14" ht="15" customHeight="1">
+    <row r="323" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N323" s="8"/>
     </row>
-    <row r="324" spans="14:14" ht="15" customHeight="1">
+    <row r="324" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N324" s="8"/>
     </row>
-    <row r="325" spans="14:14" ht="15" customHeight="1">
+    <row r="325" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N325" s="8"/>
     </row>
-    <row r="326" spans="14:14" ht="15" customHeight="1">
+    <row r="326" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N326" s="8"/>
     </row>
-    <row r="327" spans="14:14" ht="15" customHeight="1">
+    <row r="327" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N327" s="8"/>
     </row>
-    <row r="328" spans="14:14" ht="15" customHeight="1">
+    <row r="328" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N328" s="8"/>
     </row>
-    <row r="329" spans="14:14" ht="15" customHeight="1">
+    <row r="329" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N329" s="8"/>
     </row>
-    <row r="330" spans="14:14" ht="15" customHeight="1">
+    <row r="330" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N330" s="8"/>
     </row>
-    <row r="331" spans="14:14" ht="15" customHeight="1">
+    <row r="331" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N331" s="8"/>
     </row>
-    <row r="332" spans="14:14" ht="15" customHeight="1">
+    <row r="332" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N332" s="8"/>
     </row>
-    <row r="333" spans="14:14" ht="15" customHeight="1">
+    <row r="333" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N333" s="8"/>
     </row>
-    <row r="334" spans="14:14" ht="15" customHeight="1">
+    <row r="334" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N334" s="8"/>
     </row>
-    <row r="335" spans="14:14" ht="15" customHeight="1">
+    <row r="335" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N335" s="8"/>
     </row>
-    <row r="336" spans="14:14" ht="15" customHeight="1">
+    <row r="336" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N336" s="8"/>
     </row>
-    <row r="337" spans="14:14" ht="15" customHeight="1">
+    <row r="337" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N337" s="8"/>
     </row>
-    <row r="338" spans="14:14" ht="15" customHeight="1">
+    <row r="338" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N338" s="8"/>
     </row>
-    <row r="339" spans="14:14" ht="15" customHeight="1">
+    <row r="339" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N339" s="8"/>
     </row>
-    <row r="340" spans="14:14" ht="15" customHeight="1">
+    <row r="340" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N340" s="8"/>
     </row>
-    <row r="341" spans="14:14" ht="15" customHeight="1">
+    <row r="341" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N341" s="8"/>
     </row>
-    <row r="342" spans="14:14" ht="15" customHeight="1">
+    <row r="342" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N342" s="8"/>
     </row>
-    <row r="343" spans="14:14" ht="15" customHeight="1">
+    <row r="343" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N343" s="8"/>
     </row>
-    <row r="344" spans="14:14" ht="15" customHeight="1">
+    <row r="344" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N344" s="8"/>
     </row>
-    <row r="345" spans="14:14" ht="15" customHeight="1">
+    <row r="345" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N345" s="8"/>
     </row>
-    <row r="346" spans="14:14" ht="15" customHeight="1">
+    <row r="346" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N346" s="8"/>
     </row>
-    <row r="347" spans="14:14" ht="15" customHeight="1">
+    <row r="347" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N347" s="8"/>
     </row>
-    <row r="348" spans="14:14" ht="15" customHeight="1">
+    <row r="348" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N348" s="8"/>
     </row>
-    <row r="349" spans="14:14" ht="15" customHeight="1">
+    <row r="349" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N349" s="8"/>
     </row>
-    <row r="350" spans="14:14" ht="15" customHeight="1">
+    <row r="350" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N350" s="8"/>
     </row>
-    <row r="351" spans="14:14" ht="15" customHeight="1">
+    <row r="351" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N351" s="8"/>
     </row>
-    <row r="352" spans="14:14" ht="15" customHeight="1">
+    <row r="352" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N352" s="8"/>
     </row>
-    <row r="353" spans="14:14" ht="15" customHeight="1">
+    <row r="353" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N353" s="8"/>
     </row>
-    <row r="354" spans="14:14" ht="15" customHeight="1">
+    <row r="354" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N354" s="8"/>
     </row>
-    <row r="355" spans="14:14" ht="15" customHeight="1">
+    <row r="355" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N355" s="8"/>
     </row>
-    <row r="356" spans="14:14" ht="15" customHeight="1">
+    <row r="356" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N356" s="8"/>
     </row>
-    <row r="357" spans="14:14" ht="15" customHeight="1">
+    <row r="357" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N357" s="8"/>
     </row>
-    <row r="358" spans="14:14" ht="15" customHeight="1">
+    <row r="358" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N358" s="8"/>
     </row>
-    <row r="359" spans="14:14" ht="15" customHeight="1">
+    <row r="359" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N359" s="8"/>
     </row>
-    <row r="360" spans="14:14" ht="15" customHeight="1">
+    <row r="360" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N360" s="8"/>
     </row>
-    <row r="361" spans="14:14" ht="15" customHeight="1">
+    <row r="361" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N361" s="8"/>
     </row>
-    <row r="362" spans="14:14" ht="15" customHeight="1">
+    <row r="362" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N362" s="8"/>
     </row>
-    <row r="363" spans="14:14" ht="15" customHeight="1">
+    <row r="363" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N363" s="8"/>
     </row>
-    <row r="364" spans="14:14" ht="15" customHeight="1">
+    <row r="364" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N364" s="8"/>
     </row>
-    <row r="365" spans="14:14" ht="15" customHeight="1">
+    <row r="365" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N365" s="8"/>
     </row>
-    <row r="366" spans="14:14" ht="15" customHeight="1">
+    <row r="366" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N366" s="8"/>
     </row>
-    <row r="367" spans="14:14" ht="15" customHeight="1">
+    <row r="367" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N367" s="8"/>
     </row>
-    <row r="368" spans="14:14" ht="15" customHeight="1">
+    <row r="368" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N368" s="8"/>
     </row>
-    <row r="369" spans="14:14" ht="15" customHeight="1">
+    <row r="369" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N369" s="8"/>
     </row>
-    <row r="370" spans="14:14" ht="15" customHeight="1">
+    <row r="370" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N370" s="8"/>
     </row>
-    <row r="371" spans="14:14" ht="15" customHeight="1">
+    <row r="371" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N371" s="8"/>
     </row>
+    <row r="372" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N372" s="8"/>
+    </row>
+    <row r="373" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N373" s="8"/>
+    </row>
+    <row r="374" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N374" s="8"/>
+    </row>
+    <row r="375" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N375" s="8"/>
+    </row>
+    <row r="376" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N376" s="8"/>
+    </row>
+    <row r="377" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N377" s="8"/>
+    </row>
+    <row r="378" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N378" s="8"/>
+    </row>
+    <row r="379" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N379" s="8"/>
+    </row>
+    <row r="380" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N380" s="8"/>
+    </row>
+    <row r="381" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N381" s="8"/>
+    </row>
+    <row r="382" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N382" s="8"/>
+    </row>
+    <row r="383" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N383" s="8"/>
+    </row>
+    <row r="384" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N384" s="8"/>
+    </row>
+    <row r="385" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N385" s="8"/>
+    </row>
+    <row r="386" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N386" s="8"/>
+    </row>
+    <row r="387" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N387" s="8"/>
+    </row>
+    <row r="388" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N388" s="8"/>
+    </row>
+    <row r="389" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N389" s="8"/>
+    </row>
+    <row r="390" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N390" s="8"/>
+    </row>
+    <row r="391" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N391" s="8"/>
+    </row>
+    <row r="392" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N392" s="8"/>
+    </row>
+    <row r="393" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N393" s="8"/>
+    </row>
+    <row r="394" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N394" s="8"/>
+    </row>
+    <row r="395" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N395" s="8"/>
+    </row>
+    <row r="396" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N396" s="8"/>
+    </row>
+    <row r="397" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N397" s="8"/>
+    </row>
+    <row r="398" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N398" s="8"/>
+    </row>
+    <row r="399" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N399" s="8"/>
+    </row>
+    <row r="400" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N400" s="8"/>
+    </row>
+    <row r="401" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N401" s="8"/>
+    </row>
+    <row r="402" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N402" s="8"/>
+    </row>
+    <row r="403" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N403" s="8"/>
+    </row>
+    <row r="404" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N404" s="8"/>
+    </row>
+    <row r="405" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N405" s="8"/>
+    </row>
+    <row r="406" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N406" s="8"/>
+    </row>
+    <row r="407" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N407" s="8"/>
+    </row>
+    <row r="408" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N408" s="8"/>
+    </row>
+    <row r="409" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N409" s="8"/>
+    </row>
+    <row r="410" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N410" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H4:H5">
+  <conditionalFormatting sqref="H5:H14">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B6:B1048576">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B6 B8 B10 B12 B14 B16:B1048576">
       <formula1>"Employee,Spouse,Domestic Partner,Child"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P61">
       <formula1>"home,work"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B7 B9 B11 B13 B15">
       <formula1>"Employee,Spouse,Domestic Partner,Child,Disabled Child"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter date of birth between 1/1/1920 and today" sqref="I1:I1048576">
-      <formula1>7306</formula1>
-      <formula2>TODAY()</formula2>
-    </dataValidation>
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVA4:WVA261 WLE4:WLE261 WBI4:WBI261 VRM4:VRM261 VHQ4:VHQ261 UXU4:UXU261 UNY4:UNY261 UEC4:UEC261 TUG4:TUG261 TKK4:TKK261 TAO4:TAO261 SQS4:SQS261 SGW4:SGW261 RXA4:RXA261 RNE4:RNE261 RDI4:RDI261 QTM4:QTM261 QJQ4:QJQ261 PZU4:PZU261 PPY4:PPY261 PGC4:PGC261 OWG4:OWG261 OMK4:OMK261 OCO4:OCO261 NSS4:NSS261 NIW4:NIW261 MZA4:MZA261 MPE4:MPE261 MFI4:MFI261 LVM4:LVM261 LLQ4:LLQ261 LBU4:LBU261 KRY4:KRY261 KIC4:KIC261 JYG4:JYG261 JOK4:JOK261 JEO4:JEO261 IUS4:IUS261 IKW4:IKW261 IBA4:IBA261 HRE4:HRE261 HHI4:HHI261 GXM4:GXM261 GNQ4:GNQ261 GDU4:GDU261 FTY4:FTY261 FKC4:FKC261 FAG4:FAG261 EQK4:EQK261 EGO4:EGO261 DWS4:DWS261 DMW4:DMW261 DDA4:DDA261 CTE4:CTE261 CJI4:CJI261 BZM4:BZM261 BPQ4:BPQ261 BFU4:BFU261 AVY4:AVY261 AMC4:AMC261 ACG4:ACG261 SK4:SK261 IO4:IO261">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="IP4:IP302 SL4:SL302 ACH4:ACH302 AMD4:AMD302 AVZ4:AVZ302 BFV4:BFV302 BPR4:BPR302 BZN4:BZN302 CJJ4:CJJ302 CTF4:CTF302 DDB4:DDB302 DMX4:DMX302 DWT4:DWT302 EGP4:EGP302 EQL4:EQL302 FAH4:FAH302 FKD4:FKD302 FTZ4:FTZ302 GDV4:GDV302 GNR4:GNR302 GXN4:GXN302 HHJ4:HHJ302 HRF4:HRF302 IBB4:IBB302 IKX4:IKX302 IUT4:IUT302 JEP4:JEP302 JOL4:JOL302 JYH4:JYH302 KID4:KID302 KRZ4:KRZ302 LBV4:LBV302 LLR4:LLR302 LVN4:LVN302 MFJ4:MFJ302 MPF4:MPF302 MZB4:MZB302 NIX4:NIX302 NST4:NST302 OCP4:OCP302 OML4:OML302 OWH4:OWH302 PGD4:PGD302 PPZ4:PPZ302 PZV4:PZV302 QJR4:QJR302 QTN4:QTN302 RDJ4:RDJ302 RNF4:RNF302 RXB4:RXB302 SGX4:SGX302 SQT4:SQT302 TAP4:TAP302 TKL4:TKL302 TUH4:TUH302 UED4:UED302 UNZ4:UNZ302 UXV4:UXV302 VHR4:VHR302 VRN4:VRN302 WBJ4:WBJ302 WLF4:WLF302 WVB4:WVB302">
       <formula1>EERelationships</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F261 WLI4:WLI261 WBM4:WBM261 VRQ4:VRQ261 VHU4:VHU261 UXY4:UXY261 UOC4:UOC261 UEG4:UEG261 TUK4:TUK261 TKO4:TKO261 TAS4:TAS261 SQW4:SQW261 SHA4:SHA261 RXE4:RXE261 RNI4:RNI261 RDM4:RDM261 QTQ4:QTQ261 QJU4:QJU261 PZY4:PZY261 PQC4:PQC261 PGG4:PGG261 OWK4:OWK261 OMO4:OMO261 OCS4:OCS261 NSW4:NSW261 NJA4:NJA261 MZE4:MZE261 MPI4:MPI261 MFM4:MFM261 LVQ4:LVQ261 LLU4:LLU261 LBY4:LBY261 KSC4:KSC261 KIG4:KIG261 JYK4:JYK261 JOO4:JOO261 JES4:JES261 IUW4:IUW261 ILA4:ILA261 IBE4:IBE261 HRI4:HRI261 HHM4:HHM261 GXQ4:GXQ261 GNU4:GNU261 GDY4:GDY261 FUC4:FUC261 FKG4:FKG261 FAK4:FAK261 EQO4:EQO261 EGS4:EGS261 DWW4:DWW261 DNA4:DNA261 DDE4:DDE261 CTI4:CTI261 CJM4:CJM261 BZQ4:BZQ261 BPU4:BPU261 BFY4:BFY261 AWC4:AWC261 AMG4:AMG261 ACK4:ACK261 SO4:SO261 IS4:IS261 WVE4:WVE261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLJ4:WLJ302 WVF4:WVF302 IT4:IT302 SP4:SP302 ACL4:ACL302 AMH4:AMH302 AWD4:AWD302 BFZ4:BFZ302 BPV4:BPV302 BZR4:BZR302 CJN4:CJN302 CTJ4:CTJ302 DDF4:DDF302 DNB4:DNB302 DWX4:DWX302 EGT4:EGT302 EQP4:EQP302 FAL4:FAL302 FKH4:FKH302 FUD4:FUD302 GDZ4:GDZ302 GNV4:GNV302 GXR4:GXR302 HHN4:HHN302 HRJ4:HRJ302 IBF4:IBF302 ILB4:ILB302 IUX4:IUX302 JET4:JET302 JOP4:JOP302 JYL4:JYL302 KIH4:KIH302 KSD4:KSD302 LBZ4:LBZ302 LLV4:LLV302 LVR4:LVR302 MFN4:MFN302 MPJ4:MPJ302 MZF4:MZF302 NJB4:NJB302 NSX4:NSX302 OCT4:OCT302 OMP4:OMP302 OWL4:OWL302 PGH4:PGH302 PQD4:PQD302 PZZ4:PZZ302 QJV4:QJV302 QTR4:QTR302 RDN4:RDN302 RNJ4:RNJ302 RXF4:RXF302 SHB4:SHB302 SQX4:SQX302 TAT4:TAT302 TKP4:TKP302 TUL4:TUL302 UEH4:UEH302 UOD4:UOD302 UXZ4:UXZ302 VHV4:VHV302 VRR4:VRR302 WBN4:WBN302">
       <formula1>Suffix</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVJ4:WVK261 WLN4:WLO261 WBR4:WBS261 VRV4:VRW261 VHZ4:VIA261 UYD4:UYE261 UOH4:UOI261 UEL4:UEM261 TUP4:TUQ261 TKT4:TKU261 TAX4:TAY261 SRB4:SRC261 SHF4:SHG261 RXJ4:RXK261 RNN4:RNO261 RDR4:RDS261 QTV4:QTW261 QJZ4:QKA261 QAD4:QAE261 PQH4:PQI261 PGL4:PGM261 OWP4:OWQ261 OMT4:OMU261 OCX4:OCY261 NTB4:NTC261 NJF4:NJG261 MZJ4:MZK261 MPN4:MPO261 MFR4:MFS261 LVV4:LVW261 LLZ4:LMA261 LCD4:LCE261 KSH4:KSI261 KIL4:KIM261 JYP4:JYQ261 JOT4:JOU261 JEX4:JEY261 IVB4:IVC261 ILF4:ILG261 IBJ4:IBK261 HRN4:HRO261 HHR4:HHS261 GXV4:GXW261 GNZ4:GOA261 GED4:GEE261 FUH4:FUI261 FKL4:FKM261 FAP4:FAQ261 EQT4:EQU261 EGX4:EGY261 DXB4:DXC261 DNF4:DNG261 DDJ4:DDK261 CTN4:CTO261 CJR4:CJS261 BZV4:BZW261 BPZ4:BQA261 BGD4:BGE261 AWH4:AWI261 AML4:AMM261 ACP4:ACQ261 ST4:SU261 IX4:IY261">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="IY4:IZ302 SU4:SV302 ACQ4:ACR302 AMM4:AMN302 AWI4:AWJ302 BGE4:BGF302 BQA4:BQB302 BZW4:BZX302 CJS4:CJT302 CTO4:CTP302 DDK4:DDL302 DNG4:DNH302 DXC4:DXD302 EGY4:EGZ302 EQU4:EQV302 FAQ4:FAR302 FKM4:FKN302 FUI4:FUJ302 GEE4:GEF302 GOA4:GOB302 GXW4:GXX302 HHS4:HHT302 HRO4:HRP302 IBK4:IBL302 ILG4:ILH302 IVC4:IVD302 JEY4:JEZ302 JOU4:JOV302 JYQ4:JYR302 KIM4:KIN302 KSI4:KSJ302 LCE4:LCF302 LMA4:LMB302 LVW4:LVX302 MFS4:MFT302 MPO4:MPP302 MZK4:MZL302 NJG4:NJH302 NTC4:NTD302 OCY4:OCZ302 OMU4:OMV302 OWQ4:OWR302 PGM4:PGN302 PQI4:PQJ302 QAE4:QAF302 QKA4:QKB302 QTW4:QTX302 RDS4:RDT302 RNO4:RNP302 RXK4:RXL302 SHG4:SHH302 SRC4:SRD302 TAY4:TAZ302 TKU4:TKV302 TUQ4:TUR302 UEM4:UEN302 UOI4:UOJ302 UYE4:UYF302 VIA4:VIB302 VRW4:VRX302 WBS4:WBT302 WLO4:WLP302 WVK4:WVL302">
       <formula1>Status</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"male,female"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"Jr., Sr., II, III, IV, V"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>7306</formula1>
+      <formula2>TODAY()</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="N1" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6172,13 +6828,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>